--- a/team_specific_matrix/Lehigh_B.xlsx
+++ b/team_specific_matrix/Lehigh_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1925133689839572</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5828877005347594</v>
+        <v>0.5791666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0160427807486631</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1229946524064171</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0855614973262032</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009009009009009009</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C3">
-        <v>0.01801801801801802</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01801801801801802</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7657657657657657</v>
+        <v>0.7430555555555556</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1891891891891892</v>
+        <v>0.2152777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4117647058823529</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04678362573099415</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01169590643274854</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05847953216374269</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.239766081871345</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01169590643274854</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1286549707602339</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="R6">
-        <v>0.04678362573099415</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="S6">
-        <v>0.456140350877193</v>
+        <v>0.4626168224299065</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08695652173913043</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02484472049689441</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06211180124223602</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0124223602484472</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15527950310559</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="R7">
-        <v>0.05590062111801242</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="S7">
-        <v>0.4596273291925466</v>
+        <v>0.4300518134715026</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0712166172106825</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01483679525222552</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="E8">
-        <v>0.002967359050445104</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="F8">
-        <v>0.05637982195845697</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1097922848664688</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03264094955489615</v>
+        <v>0.02558139534883721</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1839762611275964</v>
+        <v>0.1837209302325581</v>
       </c>
       <c r="R8">
-        <v>0.1097922848664688</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="S8">
-        <v>0.4183976261127597</v>
+        <v>0.4209302325581395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08088235294117647</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09558823529411764</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07352941176470588</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02205882352941177</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2132352941176471</v>
+        <v>0.1875</v>
       </c>
       <c r="R9">
-        <v>0.09558823529411764</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="S9">
-        <v>0.4117647058823529</v>
+        <v>0.4147727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0937178166838311</v>
+        <v>0.09457236842105263</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02265705458290422</v>
+        <v>0.02467105263157895</v>
       </c>
       <c r="E10">
-        <v>0.002059732234809475</v>
+        <v>0.001644736842105263</v>
       </c>
       <c r="F10">
-        <v>0.07415036045314109</v>
+        <v>0.06990131578947369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08650875386199794</v>
+        <v>0.0912828947368421</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01956745623069001</v>
+        <v>0.01726973684210526</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2111225540679712</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R10">
-        <v>0.09680741503604531</v>
+        <v>0.09375</v>
       </c>
       <c r="S10">
-        <v>0.3934088568486097</v>
+        <v>0.3963815789473684</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09956709956709957</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1038961038961039</v>
+        <v>0.09811320754716982</v>
       </c>
       <c r="K11">
-        <v>0.1515151515151515</v>
+        <v>0.1547169811320755</v>
       </c>
       <c r="L11">
-        <v>0.6363636363636364</v>
+        <v>0.6339622641509434</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008658008658008658</v>
+        <v>0.007547169811320755</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.722972972972973</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2432432432432433</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="K12">
-        <v>0.01351351351351351</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="L12">
-        <v>0.006756756756756757</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01351351351351351</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6862745098039216</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0196078431372549</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006172839506172839</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="I15">
-        <v>0.07407407407407407</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="J15">
-        <v>0.345679012345679</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="K15">
-        <v>0.04938271604938271</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N15">
-        <v>0.006172839506172839</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="O15">
-        <v>0.1049382716049383</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2530864197530864</v>
+        <v>0.2227722772277228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01724137931034483</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1724137931034483</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I16">
-        <v>0.08620689655172414</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="J16">
-        <v>0.3879310344827586</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="K16">
-        <v>0.1120689655172414</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04310344827586207</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01724137931034483</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1637931034482759</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02339181286549707</v>
+        <v>0.01891252955082742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.195906432748538</v>
+        <v>0.2080378250591016</v>
       </c>
       <c r="I17">
-        <v>0.0935672514619883</v>
+        <v>0.09456264775413711</v>
       </c>
       <c r="J17">
-        <v>0.3888888888888889</v>
+        <v>0.3947990543735225</v>
       </c>
       <c r="K17">
-        <v>0.1228070175438596</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02923976608187134</v>
+        <v>0.03073286052009456</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04385964912280702</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023391812865497</v>
+        <v>0.1040189125295508</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.21875</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="I18">
-        <v>0.11875</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="J18">
-        <v>0.45625</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="K18">
-        <v>0.05625</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04375</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0375</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0625</v>
+        <v>0.07216494845360824</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01831129196337742</v>
+        <v>0.01616814874696847</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1963377416073245</v>
+        <v>0.2021018593371059</v>
       </c>
       <c r="I19">
-        <v>0.06510681586978637</v>
+        <v>0.06790622473726758</v>
       </c>
       <c r="J19">
-        <v>0.4038657171922685</v>
+        <v>0.4009700889248181</v>
       </c>
       <c r="K19">
-        <v>0.1230925737538149</v>
+        <v>0.116410670978173</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02746693794506612</v>
+        <v>0.02667744543249798</v>
       </c>
       <c r="N19">
-        <v>0.002034587995930824</v>
+        <v>0.001616814874696847</v>
       </c>
       <c r="O19">
-        <v>0.06408952187182096</v>
+        <v>0.068714632174616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09969481180061038</v>
+        <v>0.09943411479385611</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lehigh_B.xlsx
+++ b/team_specific_matrix/Lehigh_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1958333333333333</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C2">
-        <v>0.5791666666666667</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01666666666666667</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006944444444444444</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.02083333333333333</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01388888888888889</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7430555555555556</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2152777777777778</v>
+        <v>0.2134146341463415</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04205607476635514</v>
+        <v>0.0502092050209205</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345794392523364</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06074766355140187</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2383177570093458</v>
+        <v>0.2343096234309623</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009345794392523364</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1214953271028037</v>
+        <v>0.1213389121338912</v>
       </c>
       <c r="R6">
-        <v>0.05607476635514019</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="S6">
-        <v>0.4626168224299065</v>
+        <v>0.4518828451882845</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08808290155440414</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03626943005181347</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07253886010362694</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1450777202072539</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01036269430051814</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1606217616580311</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R7">
-        <v>0.05699481865284974</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S7">
-        <v>0.4300518134715026</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07209302325581396</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01162790697674419</v>
+        <v>0.01050420168067227</v>
       </c>
       <c r="E8">
-        <v>0.002325581395348837</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="F8">
-        <v>0.07441860465116279</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1069767441860465</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02558139534883721</v>
+        <v>0.02310924369747899</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1837209302325581</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="R8">
-        <v>0.1023255813953488</v>
+        <v>0.09873949579831932</v>
       </c>
       <c r="S8">
-        <v>0.4209302325581395</v>
+        <v>0.4243697478991597</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1022727272727273</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02272727272727273</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07954545454545454</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02272727272727273</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1875</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="R9">
-        <v>0.07954545454545454</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="S9">
-        <v>0.4147727272727273</v>
+        <v>0.4175257731958763</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09457236842105263</v>
+        <v>0.09506263817243921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02467105263157895</v>
+        <v>0.02210759027266028</v>
       </c>
       <c r="E10">
-        <v>0.001644736842105263</v>
+        <v>0.001473839351510685</v>
       </c>
       <c r="F10">
-        <v>0.06990131578947369</v>
+        <v>0.0707442888725129</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0912828947368421</v>
+        <v>0.08769344141488578</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01726973684210526</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2105263157894737</v>
+        <v>0.2137067059690494</v>
       </c>
       <c r="R10">
-        <v>0.09375</v>
+        <v>0.08916728076639646</v>
       </c>
       <c r="S10">
-        <v>0.3963815789473684</v>
+        <v>0.4030950626381725</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1056603773584906</v>
+        <v>0.1010452961672474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09811320754716982</v>
+        <v>0.10801393728223</v>
       </c>
       <c r="K11">
-        <v>0.1547169811320755</v>
+        <v>0.156794425087108</v>
       </c>
       <c r="L11">
-        <v>0.6339622641509434</v>
+        <v>0.627177700348432</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007547169811320755</v>
+        <v>0.006968641114982578</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7470588235294118</v>
+        <v>0.7527472527472527</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2235294117647059</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="K12">
-        <v>0.01176470588235294</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="L12">
-        <v>0.005882352941176471</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01176470588235294</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6885245901639344</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2950819672131147</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01639344262295082</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0198019801980198</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1485148514851485</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="I15">
-        <v>0.06930693069306931</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J15">
-        <v>0.3762376237623762</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="K15">
-        <v>0.04950495049504951</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01485148514851485</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N15">
-        <v>0.004950495049504951</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O15">
-        <v>0.09405940594059406</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2227722772277228</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0196078431372549</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1568627450980392</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="I16">
-        <v>0.0915032679738562</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="J16">
-        <v>0.4183006535947713</v>
+        <v>0.4152046783625731</v>
       </c>
       <c r="K16">
-        <v>0.08496732026143791</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0392156862745098</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0130718954248366</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1764705882352941</v>
+        <v>0.1637426900584795</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01891252955082742</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2080378250591016</v>
+        <v>0.2079831932773109</v>
       </c>
       <c r="I17">
-        <v>0.09456264775413711</v>
+        <v>0.09453781512605042</v>
       </c>
       <c r="J17">
-        <v>0.3947990543735225</v>
+        <v>0.4033613445378151</v>
       </c>
       <c r="K17">
-        <v>0.1063829787234043</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03073286052009456</v>
+        <v>0.03151260504201681</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0425531914893617</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1040189125295508</v>
+        <v>0.09873949579831932</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005154639175257732</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2061855670103093</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="I18">
-        <v>0.1288659793814433</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="J18">
-        <v>0.4536082474226804</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="K18">
-        <v>0.05154639175257732</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03608247422680412</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04639175257731959</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07216494845360824</v>
+        <v>0.07211538461538461</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01616814874696847</v>
+        <v>0.01670297748729121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2021018593371059</v>
+        <v>0.2011619462599855</v>
       </c>
       <c r="I19">
-        <v>0.06790622473726758</v>
+        <v>0.06753812636165578</v>
       </c>
       <c r="J19">
-        <v>0.4009700889248181</v>
+        <v>0.4059549745824256</v>
       </c>
       <c r="K19">
-        <v>0.116410670978173</v>
+        <v>0.112563543936093</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02667744543249798</v>
+        <v>0.02687000726216413</v>
       </c>
       <c r="N19">
-        <v>0.001616814874696847</v>
+        <v>0.001452432824981845</v>
       </c>
       <c r="O19">
-        <v>0.068714632174616</v>
+        <v>0.06899055918663761</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09943411479385611</v>
+        <v>0.09876543209876543</v>
       </c>
     </row>
   </sheetData>
